--- a/biology/Zoologie/Homoscleromorpha/Homoscleromorpha.xlsx
+++ b/biology/Zoologie/Homoscleromorpha/Homoscleromorpha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les homoscléromorphes (Homoscleromorpha) forment une classe de l'embranchement des Porifères (les éponges), qui contient l'unique ordre des Homosclerophorida, divisé en deux familles. 
-Sa position exacte au sein de l'embranchement n'est pas encore certaine. Malgré cela, des études de phylogénies moléculaires ont clairement montrés que les homoscléromorphes ne sont pas des démosponges et forment donc une Classe d'éponges bien à part[1].
+Sa position exacte au sein de l'embranchement n'est pas encore certaine. Malgré cela, des études de phylogénies moléculaires ont clairement montrés que les homoscléromorphes ne sont pas des démosponges et forment donc une Classe d'éponges bien à part.
 Cette classe présente différents éléments qui tendent à la faire rapprocher de tous les eumétazoaires, alors qu'aujourd'hui on les classe dans les parazoaires.
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Contrairement aux éponges calcaires et aux éponges siliceuses, on retrouve un squelette qui varie en fonction des genres. Il peut donc être en carbonate de calcium (CaCO3) ou en silice (SiO2).
 On retrouve une lame basale avec des fibrilles de collagène qui est absente chez les autres porifères mais présente chez tous les eumétazoaires.
@@ -549,9 +563,11 @@
           <t>Taxons de rang inférieur (familles et genres)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (1er mars 2016)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (1er mars 2016) :
 ordre Homosclerophorida Dendy, 1905
 famille Oscarellidae Lendenfeld, 1887
 genre Oscarella Vosmaer, 1884
